--- a/src/050_collection/data/ほぼ揃い(50冊以上)源氏物語_NIJLrev.xlsx
+++ b/src/050_collection/data/ほぼ揃い(50冊以上)源氏物語_NIJLrev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurasatoru/git/d_genji/genji_curation/src/050_collection/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F753EA-ACE8-554D-9B1D-05BF719121F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE6808B-4D29-4A4F-985D-07212F0AEB20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="他機関" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="223">
   <si>
     <t xml:space="preserve"> 刊</t>
   </si>
@@ -898,6 +898,78 @@
   <si>
     <t>https://utda.github.io/genji/iiif/utokyo/top.json</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100018286</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100292059</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100128783</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100135297</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100266039</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100182342</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100232449</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100232477</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100232530</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100232535</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100178296</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100130618</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100190213</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/200000993</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/200003803</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/200010454</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/200010455</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/200016470</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/200017428</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100250108</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100260423</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100050894</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100153620</t>
+  </si>
+  <si>
+    <t>https://kotenseki.nijl.ac.jp/biblio/100153621</t>
   </si>
 </sst>
 </file>
@@ -3173,7 +3245,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -3221,8 +3293,8 @@
         <v>91</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <v>100250108</v>
+      <c r="E2" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>128</v>
@@ -3242,8 +3314,8 @@
         <v>91</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>100260423</v>
+      <c r="E3" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>128</v>
@@ -3265,8 +3337,8 @@
       <c r="D4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="5">
-        <v>100050894</v>
+      <c r="E4" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>128</v>
@@ -3288,8 +3360,8 @@
       <c r="D5" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E5" s="5">
-        <v>100153620</v>
+      <c r="E5" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>128</v>
@@ -3311,8 +3383,8 @@
       <c r="D6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="5">
-        <v>100153621</v>
+      <c r="E6" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>128</v>
@@ -3418,8 +3490,8 @@
         <v>91</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <v>100130618</v>
+      <c r="E11" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>128</v>
@@ -3441,8 +3513,8 @@
       <c r="D12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="5">
-        <v>100190213</v>
+      <c r="E12" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>128</v>
@@ -3464,8 +3536,8 @@
       <c r="D13" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="5">
-        <v>200000993</v>
+      <c r="E13" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>128</v>
@@ -3485,8 +3557,8 @@
         <v>91</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <v>200003803</v>
+      <c r="E14" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>128</v>
@@ -3506,8 +3578,8 @@
         <v>175</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>200010454</v>
+      <c r="E15" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>128</v>
@@ -3527,8 +3599,8 @@
         <v>91</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>200010455</v>
+      <c r="E16" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>128</v>
@@ -3548,8 +3620,8 @@
         <v>91</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <v>200016470</v>
+      <c r="E17" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>128</v>
@@ -3569,8 +3641,8 @@
         <v>91</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>200017428</v>
+      <c r="E18" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>128</v>
@@ -3688,8 +3760,8 @@
       <c r="D23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="5">
-        <v>100266039</v>
+      <c r="E23" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>128</v>
@@ -3711,8 +3783,8 @@
       <c r="D24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="5">
-        <v>100182342</v>
+      <c r="E24" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>128</v>
@@ -3734,8 +3806,8 @@
       <c r="D25" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E25" s="5">
-        <v>100232449</v>
+      <c r="E25" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>128</v>
@@ -3757,8 +3829,8 @@
       <c r="D26" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="5">
-        <v>100232477</v>
+      <c r="E26" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>128</v>
@@ -3778,8 +3850,8 @@
         <v>91</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>100232530</v>
+      <c r="E27" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>128</v>
@@ -3799,8 +3871,8 @@
         <v>126</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="5">
-        <v>100232535</v>
+      <c r="E28" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>128</v>
@@ -3820,8 +3892,8 @@
         <v>95</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <v>100178296</v>
+      <c r="E29" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>128</v>
@@ -3862,8 +3934,8 @@
         <v>129</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="6">
-        <v>100018286</v>
+      <c r="E31" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>128</v>
@@ -3883,8 +3955,8 @@
         <v>91</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="5">
-        <v>100292059</v>
+      <c r="E32" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>128</v>
@@ -3904,8 +3976,8 @@
         <v>129</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="5">
-        <v>100128783</v>
+      <c r="E33" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>128</v>
@@ -3925,8 +3997,8 @@
         <v>91</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="5">
-        <v>100135297</v>
+      <c r="E34" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>128</v>
